--- a/biology/Botanique/Pepper_X/Pepper_X.xlsx
+++ b/biology/Botanique/Pepper_X/Pepper_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pepper X est un piment, développé par la PuckerButt Co. Classé à 3 180 000 dans l'échelle de Scoville (10e degré, classé explosif dans la version simplifiée), il est devenu en 2023 le piment le plus fort au monde, dépassant le Carolina Reaper[1], qui lui-même a dépassé le Trinidad Scorpion « Buch T ». Son créateur, « Smokin » Ed Currie, a aussi créé une sauce avec, s'appelant « the last dab ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pepper X est un piment, développé par la PuckerButt Co. Classé à 3 180 000 dans l'échelle de Scoville (10e degré, classé explosif dans la version simplifiée), il est devenu en 2023 le piment le plus fort au monde, dépassant le Carolina Reaper, qui lui-même a dépassé le Trinidad Scorpion « Buch T ». Son créateur, « Smokin » Ed Currie, a aussi créé une sauce avec, s'appelant « the last dab ».
 </t>
         </is>
       </c>
